--- a/Configs/Datas/CharacterData.xlsx
+++ b/Configs/Datas/CharacterData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21210" windowHeight="11925"/>
+    <workbookView windowWidth="24045" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>##var</t>
   </si>
@@ -43,9 +43,15 @@
     <t>*level</t>
   </si>
   <si>
+    <t>hp</t>
+  </si>
+  <si>
     <t>*WeaponId</t>
   </si>
   <si>
+    <t>skillID</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -71,6 +77,9 @@
   </si>
   <si>
     <t>枪械ID</t>
+  </si>
+  <si>
+    <t>技能ID</t>
   </si>
   <si>
     <t>SOLDIER:76</t>
@@ -1019,7 +1028,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
@@ -1029,13 +1038,13 @@
   <cols>
     <col min="3" max="3" width="18.625" customWidth="1"/>
     <col min="4" max="4" width="12.25" customWidth="1"/>
-    <col min="5" max="5" width="20.5" customWidth="1"/>
-    <col min="6" max="7" width="20.375" customWidth="1"/>
-    <col min="8" max="8" width="8.5" customWidth="1"/>
-    <col min="10" max="10" width="28.75" customWidth="1"/>
+    <col min="5" max="6" width="20.5" customWidth="1"/>
+    <col min="7" max="8" width="20.375" customWidth="1"/>
+    <col min="9" max="9" width="8.5" customWidth="1"/>
+    <col min="11" max="11" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1051,99 +1060,114 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1" s="1"/>
-      <c r="I1"/>
-      <c r="J1"/>
-      <c r="L1" s="2"/>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1"/>
       <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="L2" s="2"/>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
       <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="L4" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
       <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:7">
       <c r="B5">
         <v>1001</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
+        <v>300</v>
+      </c>
+      <c r="F5">
         <v>2001</v>
       </c>
+      <c r="G5">
+        <v>1001</v>
+      </c>
     </row>
-    <row r="6" spans="4:5">
+    <row r="6" spans="4:6">
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2002</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:7">
       <c r="B7">
         <v>1002</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
+        <v>200</v>
+      </c>
+      <c r="F7">
         <v>2003</v>
+      </c>
+      <c r="G7">
+        <v>1002</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/Datas/CharacterData.xlsx
+++ b/Configs/Datas/CharacterData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>##var</t>
   </si>
@@ -40,12 +40,15 @@
     <t>name</t>
   </si>
   <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
     <t>*level</t>
   </si>
   <si>
-    <t>hp</t>
-  </si>
-  <si>
     <t>*WeaponId</t>
   </si>
   <si>
@@ -82,10 +85,10 @@
     <t>技能ID</t>
   </si>
   <si>
-    <t>SOLDIER:76</t>
-  </si>
-  <si>
-    <t>Genji</t>
+    <t>艾莉亚</t>
+  </si>
+  <si>
+    <t>理智小姐</t>
   </si>
 </sst>
 </file>
@@ -1028,23 +1031,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
-    <col min="5" max="6" width="20.5" customWidth="1"/>
-    <col min="7" max="8" width="20.375" customWidth="1"/>
-    <col min="9" max="9" width="8.5" customWidth="1"/>
-    <col min="11" max="11" width="28.75" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="6" max="6" width="12.25" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="8" max="9" width="20.375" customWidth="1"/>
+    <col min="10" max="10" width="8.5" customWidth="1"/>
+    <col min="12" max="12" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1066,51 +1070,54 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="M1" s="2"/>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1"/>
       <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
       <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
@@ -1119,55 +1126,103 @@
       <c r="G4" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="2"/>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
       <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:8">
       <c r="B5">
         <v>1001</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5">
+        <v>225</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="E5">
-        <v>300</v>
-      </c>
-      <c r="F5">
-        <v>2001</v>
-      </c>
       <c r="G5">
+        <v>20011</v>
+      </c>
+      <c r="H5">
         <v>1001</v>
       </c>
     </row>
-    <row r="6" spans="4:6">
-      <c r="D6">
+    <row r="6" spans="6:7">
+      <c r="F6">
         <v>2</v>
       </c>
-      <c r="F6">
-        <v>2002</v>
+      <c r="G6">
+        <v>20012</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:8">
       <c r="B7">
         <v>1002</v>
       </c>
       <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>200</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>20021</v>
+      </c>
+      <c r="H7">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="8" spans="6:7">
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>20022</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9">
+        <v>1102</v>
+      </c>
+      <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="D7">
+      <c r="D9">
+        <v>225</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
         <v>1</v>
       </c>
-      <c r="E7">
-        <v>200</v>
-      </c>
-      <c r="F7">
-        <v>2003</v>
-      </c>
-      <c r="G7">
-        <v>1002</v>
+      <c r="G9">
+        <v>20011</v>
+      </c>
+      <c r="H9">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="10" spans="6:7">
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>20012</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/Datas/CharacterData.xlsx
+++ b/Configs/Datas/CharacterData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>##var</t>
   </si>
@@ -55,6 +55,12 @@
     <t>skillID</t>
   </si>
   <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>canForceMove</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -67,6 +73,12 @@
     <t>list,int</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
     <t>##group</t>
   </si>
   <si>
@@ -83,6 +95,9 @@
   </si>
   <si>
     <t>技能ID</t>
+  </si>
+  <si>
+    <t>射程/ai用</t>
   </si>
   <si>
     <t>艾莉亚</t>
@@ -101,19 +116,13 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -580,141 +589,138 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1034,7 +1040,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1043,8 +1049,9 @@
     <col min="4" max="5" width="20.5" customWidth="1"/>
     <col min="6" max="6" width="12.25" customWidth="1"/>
     <col min="7" max="7" width="20.5" customWidth="1"/>
-    <col min="8" max="9" width="20.375" customWidth="1"/>
-    <col min="10" max="10" width="8.5" customWidth="1"/>
+    <col min="8" max="8" width="20.375" customWidth="1"/>
+    <col min="9" max="9" width="17.625" customWidth="1"/>
+    <col min="10" max="10" width="20.5" customWidth="1"/>
     <col min="12" max="12" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1073,71 +1080,85 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:10">
       <c r="B5">
         <v>1001</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <v>225</v>
@@ -1153,6 +1174,12 @@
       </c>
       <c r="H5">
         <v>1001</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="6:7">
@@ -1163,12 +1190,12 @@
         <v>20012</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:10">
       <c r="B7">
         <v>1002</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D7">
         <v>200</v>
@@ -1184,6 +1211,12 @@
       </c>
       <c r="H7">
         <v>1002</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="6:7">
@@ -1194,12 +1227,12 @@
         <v>20022</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:10">
       <c r="B9">
         <v>1102</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D9">
         <v>225</v>
@@ -1215,6 +1248,12 @@
       </c>
       <c r="H9">
         <v>1001</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="6:7">

--- a/Configs/Datas/CharacterData.xlsx
+++ b/Configs/Datas/CharacterData.xlsx
@@ -1040,7 +1040,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1164,7 +1164,7 @@
         <v>225</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1201,7 +1201,7 @@
         <v>200</v>
       </c>
       <c r="E7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1238,7 +1238,7 @@
         <v>225</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F9">
         <v>1</v>

--- a/Configs/Datas/CharacterData.xlsx
+++ b/Configs/Datas/CharacterData.xlsx
@@ -4,32 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12525"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>##var</t>
   </si>
@@ -104,17 +91,20 @@
   </si>
   <si>
     <t>理智小姐</t>
+  </si>
+  <si>
+    <t>测试</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -125,6 +115,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -141,10 +189,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -173,23 +222,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,73 +246,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,19 +268,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,25 +400,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,127 +442,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,6 +459,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -491,46 +520,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,164 +559,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -729,52 +719,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1037,20 +1027,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="18.6296296296296" customWidth="1"/>
     <col min="4" max="5" width="20.5" customWidth="1"/>
     <col min="6" max="6" width="12.25" customWidth="1"/>
     <col min="7" max="7" width="20.5" customWidth="1"/>
-    <col min="8" max="8" width="20.375" customWidth="1"/>
-    <col min="9" max="9" width="17.625" customWidth="1"/>
+    <col min="8" max="8" width="20.3796296296296" customWidth="1"/>
+    <col min="9" max="9" width="17.6296296296296" customWidth="1"/>
     <col min="10" max="10" width="20.5" customWidth="1"/>
     <col min="12" max="12" width="28.75" customWidth="1"/>
   </cols>
@@ -1262,6 +1252,35 @@
       </c>
       <c r="G10">
         <v>20012</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11">
+        <v>5500</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1280,7 +1299,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1297,7 +1316,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Configs/Datas/CharacterData.xlsx
+++ b/Configs/Datas/CharacterData.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="24750" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>##var</t>
   </si>
@@ -93,18 +106,21 @@
     <t>理智小姐</t>
   </si>
   <si>
-    <t>测试</t>
+    <t>紫色史莱姆</t>
+  </si>
+  <si>
+    <t>愤怒史莱姆</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -115,22 +131,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,10 +154,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -158,6 +186,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -165,95 +254,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,187 +284,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,45 +475,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -520,18 +497,46 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,153 +564,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -719,52 +735,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1027,22 +1043,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="18.6296296296296" customWidth="1"/>
+    <col min="3" max="3" width="18.6272727272727" customWidth="1"/>
     <col min="4" max="5" width="20.5" customWidth="1"/>
-    <col min="6" max="6" width="12.25" customWidth="1"/>
+    <col min="6" max="6" width="12.2545454545455" customWidth="1"/>
     <col min="7" max="7" width="20.5" customWidth="1"/>
-    <col min="8" max="8" width="20.3796296296296" customWidth="1"/>
-    <col min="9" max="9" width="17.6296296296296" customWidth="1"/>
+    <col min="8" max="8" width="20.3727272727273" customWidth="1"/>
+    <col min="9" max="9" width="17.6272727272727" customWidth="1"/>
     <col min="10" max="10" width="20.5" customWidth="1"/>
-    <col min="12" max="12" width="28.75" customWidth="1"/>
+    <col min="12" max="12" width="28.7545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1256,13 +1272,13 @@
     </row>
     <row r="11" spans="2:10">
       <c r="B11">
-        <v>5500</v>
+        <v>1103</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
       </c>
       <c r="D11">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1271,16 +1287,45 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>29999</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1003</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13">
+        <v>1105</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13">
+        <v>200</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>29999</v>
+      </c>
+      <c r="H13">
+        <v>1003</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1299,7 +1344,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1316,7 +1361,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Configs/Datas/CharacterData.xlsx
+++ b/Configs/Datas/CharacterData.xlsx
@@ -1046,7 +1046,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1290,10 +1290,10 @@
         <v>29999</v>
       </c>
       <c r="H11">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J11" t="b">
         <v>1</v>
@@ -1322,7 +1322,7 @@
         <v>1003</v>
       </c>
       <c r="I13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J13" t="b">
         <v>1</v>

--- a/Configs/Datas/CharacterData.xlsx
+++ b/Configs/Datas/CharacterData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>##var</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>愤怒史莱姆</t>
+  </si>
+  <si>
+    <t>愤怒史莱姆test</t>
   </si>
 </sst>
 </file>
@@ -1043,10 +1046,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1281,7 +1284,7 @@
         <v>200</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1325,6 +1328,35 @@
         <v>7</v>
       </c>
       <c r="J13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15">
+        <v>1106</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15">
+        <v>200</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>29999</v>
+      </c>
+      <c r="H15">
+        <v>1005</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Configs/Datas/CharacterData.xlsx
+++ b/Configs/Datas/CharacterData.xlsx
@@ -4,32 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10480"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>##var</t>
   </si>
@@ -113,17 +100,20 @@
   </si>
   <si>
     <t>愤怒史莱姆test</t>
+  </si>
+  <si>
+    <t>石像</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -134,6 +124,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -142,11 +146,95 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -165,114 +253,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,19 +277,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,97 +415,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,24 +433,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -444,18 +446,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,11 +486,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,7 +505,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,17 +525,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,173 +568,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -738,52 +728,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1046,22 +1036,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="18.6272727272727" customWidth="1"/>
+    <col min="3" max="3" width="18.6296296296296" customWidth="1"/>
     <col min="4" max="5" width="20.5" customWidth="1"/>
-    <col min="6" max="6" width="12.2545454545455" customWidth="1"/>
+    <col min="6" max="6" width="12.25" customWidth="1"/>
     <col min="7" max="7" width="20.5" customWidth="1"/>
-    <col min="8" max="8" width="20.3727272727273" customWidth="1"/>
-    <col min="9" max="9" width="17.6272727272727" customWidth="1"/>
+    <col min="8" max="8" width="20.3703703703704" customWidth="1"/>
+    <col min="9" max="9" width="17.6296296296296" customWidth="1"/>
     <col min="10" max="10" width="20.5" customWidth="1"/>
-    <col min="12" max="12" width="28.7545454545455" customWidth="1"/>
+    <col min="12" max="12" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1358,6 +1348,35 @@
       </c>
       <c r="J15" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17">
+        <v>5500</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17">
+        <v>99999</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1376,7 +1395,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1393,7 +1412,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Configs/Datas/CharacterData.xlsx
+++ b/Configs/Datas/CharacterData.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10480"/>
+    <workbookView windowWidth="17490" windowHeight="10935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>##var</t>
   </si>
@@ -106,13 +106,16 @@
     <t>理智小姐</t>
   </si>
   <si>
+    <t>愤怒之花</t>
+  </si>
+  <si>
     <t>紫色史莱姆</t>
   </si>
   <si>
     <t>愤怒史莱姆</t>
   </si>
   <si>
-    <t>愤怒史莱姆test</t>
+    <t>火灵</t>
   </si>
 </sst>
 </file>
@@ -1049,19 +1052,19 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B5" sqref="B5:J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="18.6272727272727" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
     <col min="4" max="5" width="20.5" customWidth="1"/>
-    <col min="6" max="6" width="12.2545454545455" customWidth="1"/>
+    <col min="6" max="6" width="12.2583333333333" customWidth="1"/>
     <col min="7" max="7" width="20.5" customWidth="1"/>
-    <col min="8" max="8" width="20.3727272727273" customWidth="1"/>
-    <col min="9" max="9" width="17.6272727272727" customWidth="1"/>
+    <col min="8" max="8" width="20.375" customWidth="1"/>
+    <col min="9" max="9" width="17.625" customWidth="1"/>
     <col min="10" max="10" width="20.5" customWidth="1"/>
-    <col min="12" max="12" width="28.7545454545455" customWidth="1"/>
+    <col min="12" max="12" width="28.7583333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1170,7 +1173,7 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>225</v>
+        <v>1000</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -1241,10 +1244,10 @@
         <v>1102</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>225</v>
+        <v>2000</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -1253,38 +1256,30 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>20011</v>
+        <v>21021</v>
       </c>
       <c r="H9">
-        <v>1001</v>
+        <v>1102</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J9" t="b">
         <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="6:7">
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>20012</v>
       </c>
     </row>
     <row r="11" spans="2:10">
       <c r="B11">
-        <v>1103</v>
+        <v>1201</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1293,10 +1288,10 @@
         <v>29999</v>
       </c>
       <c r="H11">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="I11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J11" t="b">
         <v>1</v>
@@ -1304,16 +1299,16 @@
     </row>
     <row r="13" spans="2:10">
       <c r="B13">
-        <v>1105</v>
+        <v>1202</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13">
         <v>200</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1322,10 +1317,10 @@
         <v>29999</v>
       </c>
       <c r="H13">
-        <v>1003</v>
+        <v>1202</v>
       </c>
       <c r="I13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J13" t="b">
         <v>1</v>
@@ -1333,16 +1328,16 @@
     </row>
     <row r="15" spans="2:10">
       <c r="B15">
-        <v>1106</v>
+        <v>1203</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15">
         <v>200</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1351,10 +1346,10 @@
         <v>29999</v>
       </c>
       <c r="H15">
-        <v>1005</v>
+        <v>1203</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J15" t="b">
         <v>1</v>
@@ -1376,7 +1371,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1393,7 +1388,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Configs/Datas/CharacterData.xlsx
+++ b/Configs/Datas/CharacterData.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="24045" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>##var</t>
   </si>
@@ -87,35 +100,65 @@
     <t>射程/ai用</t>
   </si>
   <si>
-    <t>艾莉亚</t>
-  </si>
-  <si>
-    <t>理智小姐</t>
-  </si>
-  <si>
-    <t>紫色史莱姆</t>
-  </si>
-  <si>
-    <t>愤怒史莱姆</t>
-  </si>
-  <si>
-    <t>愤怒史莱姆test</t>
-  </si>
-  <si>
-    <t>石像</t>
+    <t>艾莉亚(主角)</t>
+  </si>
+  <si>
+    <t>理智小姐(角色2)</t>
+  </si>
+  <si>
+    <t>紫色史莱姆(触碰掉血)</t>
+  </si>
+  <si>
+    <t>愤怒史莱姆(远程火弹)</t>
+  </si>
+  <si>
+    <t>火灵(火焰冲刺怪)</t>
+  </si>
+  <si>
+    <t>悲伤史莱姆(本质与愤怒相同</t>
+  </si>
+  <si>
+    <t>悲伤水灵(蓄力大水泡)</t>
+  </si>
+  <si>
+    <t>大软泥怪(会召小怪)</t>
+  </si>
+  <si>
+    <t>小软泥怪(高速少血)</t>
+  </si>
+  <si>
+    <t>愤怒之花(第1关BOSS)</t>
+  </si>
+  <si>
+    <t>悲伤之花(第1关BOSS)</t>
+  </si>
+  <si>
+    <t>崩溃之心(第3关BOSS)</t>
+  </si>
+  <si>
+    <t>爱心石像(存档复活)</t>
+  </si>
+  <si>
+    <t>快乐之花(角色3)</t>
+  </si>
+  <si>
+    <t>草地/沙堆陷阱</t>
+  </si>
+  <si>
+    <t>水地/礁石陷阱</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,16 +168,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -146,17 +182,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -168,9 +213,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,22 +253,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,55 +283,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,175 +327,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,17 +536,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,7 +549,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,31 +569,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,158 +598,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -728,52 +781,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1036,20 +1089,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="18.6296296296296" customWidth="1"/>
+    <col min="3" max="3" width="18.6333333333333" customWidth="1"/>
     <col min="4" max="5" width="20.5" customWidth="1"/>
     <col min="6" max="6" width="12.25" customWidth="1"/>
     <col min="7" max="7" width="20.5" customWidth="1"/>
-    <col min="8" max="8" width="20.3703703703704" customWidth="1"/>
-    <col min="9" max="9" width="17.6296296296296" customWidth="1"/>
+    <col min="8" max="8" width="20.3666666666667" customWidth="1"/>
+    <col min="9" max="9" width="17.6333333333333" customWidth="1"/>
     <col min="10" max="10" width="20.5" customWidth="1"/>
     <col min="12" max="12" width="28.75" customWidth="1"/>
   </cols>
@@ -1085,8 +1138,8 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
@@ -1119,8 +1172,8 @@
       <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
@@ -1149,8 +1202,8 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
     </row>
     <row r="5" spans="2:10">
       <c r="B5">
@@ -1160,10 +1213,10 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>225</v>
+        <v>21230</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1197,10 +1250,10 @@
         <v>24</v>
       </c>
       <c r="D7">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1228,13 +1281,13 @@
     </row>
     <row r="9" spans="2:10">
       <c r="B9">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -1243,38 +1296,30 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>20011</v>
+        <v>29999</v>
       </c>
       <c r="H9">
-        <v>1001</v>
+        <v>1101</v>
       </c>
       <c r="I9">
         <v>5</v>
       </c>
       <c r="J9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="6:7">
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>20012</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:10">
       <c r="B11">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1283,7 +1328,7 @@
         <v>29999</v>
       </c>
       <c r="H11">
-        <v>1004</v>
+        <v>1102</v>
       </c>
       <c r="I11">
         <v>7</v>
@@ -1294,16 +1339,16 @@
     </row>
     <row r="13" spans="2:10">
       <c r="B13">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13">
         <v>200</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1312,7 +1357,7 @@
         <v>29999</v>
       </c>
       <c r="H13">
-        <v>1003</v>
+        <v>1103</v>
       </c>
       <c r="I13">
         <v>7</v>
@@ -1323,16 +1368,16 @@
     </row>
     <row r="15" spans="2:10">
       <c r="B15">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15">
         <v>200</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1341,10 +1386,10 @@
         <v>29999</v>
       </c>
       <c r="H15">
-        <v>1005</v>
+        <v>1104</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J15" t="b">
         <v>1</v>
@@ -1352,30 +1397,291 @@
     </row>
     <row r="17" spans="2:10">
       <c r="B17">
+        <v>1105</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17">
+        <v>250</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>29996</v>
+      </c>
+      <c r="H17">
+        <v>1105</v>
+      </c>
+      <c r="I17">
+        <v>8</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19">
+        <v>1106</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19">
+        <v>500</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>29999</v>
+      </c>
+      <c r="H19">
+        <v>1101</v>
+      </c>
+      <c r="I19">
+        <v>7</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21">
+        <v>1107</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21">
+        <v>150</v>
+      </c>
+      <c r="E21">
+        <v>7</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>29999</v>
+      </c>
+      <c r="H21">
+        <v>1101</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23">
+        <v>1201</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23">
+        <v>2000</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>29998</v>
+      </c>
+      <c r="H23">
+        <v>1201</v>
+      </c>
+      <c r="I23">
+        <v>8</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25">
+        <v>1202</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25">
+        <v>2600</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>29999</v>
+      </c>
+      <c r="H25">
+        <v>1202</v>
+      </c>
+      <c r="I25">
+        <v>8</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27">
+        <v>1203</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27">
+        <v>9999</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>29999</v>
+      </c>
+      <c r="H27">
+        <v>1203</v>
+      </c>
+      <c r="I27">
+        <v>8</v>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29">
         <v>5500</v>
       </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17">
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29">
         <v>99999</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17" t="b">
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31">
+        <v>1003</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31">
+        <v>300</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>20031</v>
+      </c>
+      <c r="H31">
+        <v>1003</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
+      <c r="J31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33">
+        <v>6600</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33">
+        <v>999999</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="2:10">
+      <c r="B35">
+        <v>6601</v>
+      </c>
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35">
+        <v>999999</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1395,7 +1701,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1412,7 +1718,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Configs/Datas/CharacterData.xlsx
+++ b/Configs/Datas/CharacterData.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="24750" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>##var</t>
   </si>
@@ -87,35 +100,71 @@
     <t>射程/ai用</t>
   </si>
   <si>
-    <t>艾莉亚</t>
-  </si>
-  <si>
-    <t>理智小姐</t>
-  </si>
-  <si>
-    <t>紫色史莱姆</t>
-  </si>
-  <si>
-    <t>愤怒史莱姆</t>
-  </si>
-  <si>
-    <t>愤怒史莱姆test</t>
-  </si>
-  <si>
-    <t>石像</t>
+    <t>艾莉亚(主角)</t>
+  </si>
+  <si>
+    <t>理智小姐(角色2)</t>
+  </si>
+  <si>
+    <t>紫色史莱姆(触碰掉血)</t>
+  </si>
+  <si>
+    <t>愤怒史莱姆(远程火弹)</t>
+  </si>
+  <si>
+    <t>火灵(火焰冲刺怪)</t>
+  </si>
+  <si>
+    <t>悲伤史莱姆(本质与愤怒相同</t>
+  </si>
+  <si>
+    <t>悲伤水灵(蓄力大水泡)</t>
+  </si>
+  <si>
+    <t>大软泥怪(会召小怪)</t>
+  </si>
+  <si>
+    <t>小软泥怪(高速少血)</t>
+  </si>
+  <si>
+    <t>愤怒之花(第1关BOSS)</t>
+  </si>
+  <si>
+    <t>悲伤之花(第1关BOSS)</t>
+  </si>
+  <si>
+    <t>崩溃之心(第3关BOSS)</t>
+  </si>
+  <si>
+    <t>爱心石像(存档复活)</t>
+  </si>
+  <si>
+    <t>快乐之花(角色3)</t>
+  </si>
+  <si>
+    <t>草地/沙堆陷阱</t>
+  </si>
+  <si>
+    <t>水地/礁石陷阱</t>
+  </si>
+  <si>
+    <t>定向陷阱怪物</t>
+  </si>
+  <si>
+    <t>障碍</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,16 +174,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -146,17 +188,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -168,9 +219,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,22 +259,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,55 +289,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,175 +333,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,17 +542,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,7 +555,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,31 +575,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,158 +604,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -728,52 +787,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1036,22 +1095,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="18.6296296296296" customWidth="1"/>
+    <col min="3" max="3" width="18.6363636363636" customWidth="1"/>
     <col min="4" max="5" width="20.5" customWidth="1"/>
-    <col min="6" max="6" width="12.25" customWidth="1"/>
+    <col min="6" max="6" width="12.2545454545455" customWidth="1"/>
     <col min="7" max="7" width="20.5" customWidth="1"/>
-    <col min="8" max="8" width="20.3703703703704" customWidth="1"/>
-    <col min="9" max="9" width="17.6296296296296" customWidth="1"/>
+    <col min="8" max="8" width="20.3636363636364" customWidth="1"/>
+    <col min="9" max="9" width="17.6363636363636" customWidth="1"/>
     <col min="10" max="10" width="20.5" customWidth="1"/>
-    <col min="12" max="12" width="28.75" customWidth="1"/>
+    <col min="12" max="12" width="28.7545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1085,8 +1144,8 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
@@ -1119,8 +1178,8 @@
       <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
@@ -1149,8 +1208,8 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
     </row>
     <row r="5" spans="2:10">
       <c r="B5">
@@ -1160,10 +1219,10 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>225</v>
+        <v>21230</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1197,10 +1256,10 @@
         <v>24</v>
       </c>
       <c r="D7">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1228,13 +1287,13 @@
     </row>
     <row r="9" spans="2:10">
       <c r="B9">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -1243,38 +1302,30 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>20011</v>
+        <v>29999</v>
       </c>
       <c r="H9">
-        <v>1001</v>
+        <v>1101</v>
       </c>
       <c r="I9">
         <v>5</v>
       </c>
       <c r="J9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="6:7">
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>20012</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:10">
       <c r="B11">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1283,7 +1334,7 @@
         <v>29999</v>
       </c>
       <c r="H11">
-        <v>1004</v>
+        <v>1102</v>
       </c>
       <c r="I11">
         <v>7</v>
@@ -1294,16 +1345,16 @@
     </row>
     <row r="13" spans="2:10">
       <c r="B13">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13">
         <v>200</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1312,7 +1363,7 @@
         <v>29999</v>
       </c>
       <c r="H13">
-        <v>1003</v>
+        <v>1103</v>
       </c>
       <c r="I13">
         <v>7</v>
@@ -1323,16 +1374,16 @@
     </row>
     <row r="15" spans="2:10">
       <c r="B15">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15">
         <v>200</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1341,10 +1392,10 @@
         <v>29999</v>
       </c>
       <c r="H15">
-        <v>1005</v>
+        <v>1104</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J15" t="b">
         <v>1</v>
@@ -1352,30 +1403,349 @@
     </row>
     <row r="17" spans="2:10">
       <c r="B17">
+        <v>1105</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17">
+        <v>250</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>29999</v>
+      </c>
+      <c r="H17">
+        <v>1105</v>
+      </c>
+      <c r="I17">
+        <v>8</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19">
+        <v>1106</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19">
+        <v>500</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>29999</v>
+      </c>
+      <c r="H19">
+        <v>1101</v>
+      </c>
+      <c r="I19">
+        <v>7</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21">
+        <v>1107</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21">
+        <v>150</v>
+      </c>
+      <c r="E21">
+        <v>7</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>29999</v>
+      </c>
+      <c r="H21">
+        <v>1101</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23">
+        <v>1201</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23">
+        <v>2000</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>29999</v>
+      </c>
+      <c r="H23">
+        <v>1201</v>
+      </c>
+      <c r="I23">
+        <v>8</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25">
+        <v>1202</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25">
+        <v>2600</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>29999</v>
+      </c>
+      <c r="H25">
+        <v>1202</v>
+      </c>
+      <c r="I25">
+        <v>8</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27">
+        <v>1203</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27">
+        <v>9999</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>29999</v>
+      </c>
+      <c r="H27">
+        <v>1203</v>
+      </c>
+      <c r="I27">
+        <v>8</v>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29">
         <v>5500</v>
       </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17">
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29">
         <v>99999</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17" t="b">
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31">
+        <v>1003</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31">
+        <v>300</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>20031</v>
+      </c>
+      <c r="H31">
+        <v>1003</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
+      <c r="J31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33">
+        <v>6600</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33">
+        <v>999999</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="2:10">
+      <c r="B35">
+        <v>6601</v>
+      </c>
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35">
+        <v>999999</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37">
+        <v>2468</v>
+      </c>
+      <c r="C37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37">
+        <v>999999</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>29999</v>
+      </c>
+      <c r="H37">
+        <v>1104</v>
+      </c>
+      <c r="I37">
+        <v>7</v>
+      </c>
+      <c r="J37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39">
+        <v>5200</v>
+      </c>
+      <c r="C39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39">
+        <v>99999</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1395,7 +1765,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1412,7 +1782,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Configs/Datas/CharacterData.xlsx
+++ b/Configs/Datas/CharacterData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10480"/>
+    <workbookView windowWidth="24045" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -152,6 +152,12 @@
   </si>
   <si>
     <t>障碍</t>
+  </si>
+  <si>
+    <t>蘑菇</t>
+  </si>
+  <si>
+    <t>钥匙</t>
   </si>
 </sst>
 </file>
@@ -1095,22 +1101,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="18.6363636363636" customWidth="1"/>
+    <col min="3" max="3" width="18.6333333333333" customWidth="1"/>
     <col min="4" max="5" width="20.5" customWidth="1"/>
-    <col min="6" max="6" width="12.2545454545455" customWidth="1"/>
+    <col min="6" max="6" width="12.2583333333333" customWidth="1"/>
     <col min="7" max="7" width="20.5" customWidth="1"/>
-    <col min="8" max="8" width="20.3636363636364" customWidth="1"/>
-    <col min="9" max="9" width="17.6363636363636" customWidth="1"/>
+    <col min="8" max="8" width="20.3666666666667" customWidth="1"/>
+    <col min="9" max="9" width="17.6333333333333" customWidth="1"/>
     <col min="10" max="10" width="20.5" customWidth="1"/>
-    <col min="12" max="12" width="28.7545454545455" customWidth="1"/>
+    <col min="12" max="12" width="28.7583333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1219,10 +1225,10 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>21230</v>
+        <v>1000</v>
       </c>
       <c r="E5">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1256,7 +1262,7 @@
         <v>24</v>
       </c>
       <c r="D7">
-        <v>20000</v>
+        <v>1000</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -1418,7 +1424,7 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>29999</v>
+        <v>29996</v>
       </c>
       <c r="H17">
         <v>1105</v>
@@ -1450,7 +1456,7 @@
         <v>29999</v>
       </c>
       <c r="H19">
-        <v>1101</v>
+        <v>1106</v>
       </c>
       <c r="I19">
         <v>7</v>
@@ -1505,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>29999</v>
+        <v>29998</v>
       </c>
       <c r="H23">
         <v>1201</v>
@@ -1691,6 +1697,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="36" spans="2:10">
+      <c r="B36">
+        <v>6602</v>
+      </c>
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36">
+        <v>999999</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+    </row>
     <row r="37" spans="2:10">
       <c r="B37">
         <v>2468</v>
@@ -1746,6 +1781,64 @@
         <v>0</v>
       </c>
       <c r="J39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41">
+        <v>5501</v>
+      </c>
+      <c r="C41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41">
+        <v>99999</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43">
+        <v>5502</v>
+      </c>
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43">
+        <v>99999</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1765,7 +1858,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1782,7 +1875,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
